--- a/results/mp/deberta/corona/confidence/210/stop-words-desired-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-desired-0.5/avg_0.003_scores.xlsx
@@ -133,15 +133,15 @@
     <t>community</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
@@ -163,13 +163,13 @@
     <t>hope</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>relief</t>
@@ -1596,25 +1596,25 @@
         <v>39</v>
       </c>
       <c r="K26">
-        <v>0.7268722466960352</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L26">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="M26">
-        <v>177</v>
+        <v>69</v>
       </c>
       <c r="N26">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O26">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>62</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1622,25 +1622,25 @@
         <v>40</v>
       </c>
       <c r="K27">
-        <v>0.7222222222222222</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L27">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="M27">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="N27">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O27">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1648,25 +1648,25 @@
         <v>41</v>
       </c>
       <c r="K28">
-        <v>0.7058823529411765</v>
+        <v>0.6903765690376569</v>
       </c>
       <c r="L28">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="M28">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="N28">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1856,13 +1856,13 @@
         <v>49</v>
       </c>
       <c r="K36">
-        <v>0.6116207951070336</v>
+        <v>0.6113074204946997</v>
       </c>
       <c r="L36">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="M36">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="N36">
         <v>0.9399999999999999</v>
@@ -1874,7 +1874,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1882,13 +1882,13 @@
         <v>50</v>
       </c>
       <c r="K37">
-        <v>0.6113074204946997</v>
+        <v>0.5930232558139535</v>
       </c>
       <c r="L37">
-        <v>173</v>
+        <v>51</v>
       </c>
       <c r="M37">
-        <v>185</v>
+        <v>54</v>
       </c>
       <c r="N37">
         <v>0.9399999999999999</v>
@@ -1900,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>110</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1908,25 +1908,25 @@
         <v>51</v>
       </c>
       <c r="K38">
-        <v>0.5930232558139535</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L38">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="M38">
-        <v>54</v>
+        <v>200</v>
       </c>
       <c r="N38">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>35</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="10:17">
